--- a/Data/new3.xlsx
+++ b/Data/new3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sam walton</t>
+          <t>n.a.</t>
         </is>
       </c>
     </row>
@@ -478,30 +478,6 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>bill gates</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RIL </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mukesh ambani</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TATA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ratan tata</t>
         </is>
       </c>
     </row>
